--- a/models/baseline_cond_latest/data/US_local.xlsx
+++ b/models/baseline_cond_latest/data/US_local.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/replication-hasenzagl-et-al-2021/models/baseline_iis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/replication-hasenzagl-et-al-2021/models/baseline_cond_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FEE11F-2E51-C849-89EF-FF95BA8D8E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB499A89-22AF-A84D-AC4A-23ECD9D5642B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7298,8 +7298,8 @@
       <c r="B444" s="2">
         <v>44012</v>
       </c>
-      <c r="C444">
-        <v>38.31</v>
+      <c r="C444" s="3">
+        <v>38.307272727272725</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7309,8 +7309,8 @@
       <c r="B445" s="2">
         <v>44043</v>
       </c>
-      <c r="C445">
-        <v>40.71</v>
+      <c r="C445" s="3">
+        <v>40.710454545454546</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7320,12 +7320,20 @@
       <c r="B446" s="2">
         <v>44074</v>
       </c>
-      <c r="C446">
-        <v>42.34</v>
+      <c r="C446" s="3">
+        <v>42.339047619047619</v>
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" s="15"/>
+      <c r="A447" s="15">
+        <v>202009</v>
+      </c>
+      <c r="B447" s="2">
+        <v>44104</v>
+      </c>
+      <c r="C447" s="3">
+        <v>39.644210526315788</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16407,6 +16415,9 @@
       <c r="GK1" s="12">
         <v>44074</v>
       </c>
+      <c r="GL1" s="12">
+        <v>44104</v>
+      </c>
     </row>
     <row r="2" spans="1:951">
       <c r="A2" s="4" t="s">
@@ -16987,6 +16998,9 @@
       </c>
       <c r="GK2" s="8">
         <v>44074</v>
+      </c>
+      <c r="GL2" s="8">
+        <v>44104</v>
       </c>
       <c r="ACF2" s="6"/>
       <c r="ACG2" s="6"/>
